--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul\IdeaProjects\SeleniumFrameWork\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul.b.gautam\IdeaProjects\SeleniumFrameWorkv2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E246A5D-DB9E-41D8-A0AB-AC7F2A3F631C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA199D95-7687-4E1C-BC86-C78283803E94}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>FirstName</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>rahulgautamvvs@gmail.com</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>TestDATA</t>
+  </si>
+  <si>
+    <t>END</t>
   </si>
 </sst>
 </file>
@@ -66,15 +75,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,14 +97,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -371,45 +403,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E28696EB-5277-44E4-B7BD-C673B03706D3}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E28696EB-5277-44E4-B7BD-C673B03706D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul.b.gautam\IdeaProjects\SeleniumFrameWorkv2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA199D95-7687-4E1C-BC86-C78283803E94}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9253714-C1C0-4934-88A3-593D575C7219}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,40 +25,232 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>rahul</t>
-  </si>
-  <si>
-    <t>gautam</t>
-  </si>
-  <si>
-    <t>rahulgautamvvs@gmail.com</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>TestDATA</t>
-  </si>
-  <si>
-    <t>END</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>driverVersion</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>NavPageURL</t>
+  </si>
+  <si>
+    <t>SelfServiceURL</t>
+  </si>
+  <si>
+    <t>enterpriseURL</t>
+  </si>
+  <si>
+    <t>FNF_HR_Page_url</t>
+  </si>
+  <si>
+    <t>FNF_PY_Page_url</t>
+  </si>
+  <si>
+    <t>FNF_TE_Page_url</t>
+  </si>
+  <si>
+    <t>IndiaExitProcess_Landing_Page</t>
+  </si>
+  <si>
+    <t>AdminUsername</t>
+  </si>
+  <si>
+    <t>AdminPassword</t>
+  </si>
+  <si>
+    <t>TE_Fulfiller</t>
+  </si>
+  <si>
+    <t>TE_Reassignment_Fulfiller</t>
+  </si>
+  <si>
+    <t>TE_Reassignment_Fulfiller_Fullname</t>
+  </si>
+  <si>
+    <t>TE_Fulfiller_SameAG</t>
+  </si>
+  <si>
+    <t>TE_Fulfiller_DifferentAG</t>
+  </si>
+  <si>
+    <t>HR_Fulfiller</t>
+  </si>
+  <si>
+    <t>HR_Reassignment_Fulfiller</t>
+  </si>
+  <si>
+    <t>HR_Reassignment_Fulfiller_Fullname</t>
+  </si>
+  <si>
+    <t>HR_Fulfiller_SameAGForRelieving Letter</t>
+  </si>
+  <si>
+    <t>HR_Fulfiller_DifferentAGForRelieving Letter</t>
+  </si>
+  <si>
+    <t>HR_Fulfiller_SameAGForLetterCapturing</t>
+  </si>
+  <si>
+    <t>HR_Fulfiller_DifferentAGForLetterCapturing</t>
+  </si>
+  <si>
+    <t>PY_Fulfiller_PY-INDIA</t>
+  </si>
+  <si>
+    <t>PY_Reassignment_Fulfiller</t>
+  </si>
+  <si>
+    <t>PY_Reassignment_Fulfiller_Fullname</t>
+  </si>
+  <si>
+    <t>PY_Fulfiller_PY-INDIA_SameAg</t>
+  </si>
+  <si>
+    <t>PY_Fulfiller_PY-INDIA_DifferentAg</t>
+  </si>
+  <si>
+    <t>PY_Fulfiller_INSURANCE-INDIA_SameAg</t>
+  </si>
+  <si>
+    <t>PY_Fulfiller_INSURANCE-INDIA_DifferentAg</t>
+  </si>
+  <si>
+    <t>PY_Fulfiller_ProvidentFund_SameAg</t>
+  </si>
+  <si>
+    <t>navigate</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>77.0.3865.40</t>
+  </si>
+  <si>
+    <t>https://support-test.accenture.com/login.do</t>
+  </si>
+  <si>
+    <t>https://support-test.accenture.com/nav_to.do?uri=%2Fhome.do%3F</t>
+  </si>
+  <si>
+    <t>https://support-test.accenture.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=24ce8ebbdb09b300f945f9a41d9619de</t>
+  </si>
+  <si>
+    <t>https://support-test.accenture.com/login_with_sso.do?glide_sso_id=268f89771b85b384e60eb8cc1d4bcb8b</t>
+  </si>
+  <si>
+    <t>https://support-test.accenture.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=79c3b98bdb6ff3c0547bf456bf961902</t>
+  </si>
+  <si>
+    <t>https://support-test.accenture.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=b0d8a24bdba7fbc0f5f4fd27bf9619c1</t>
+  </si>
+  <si>
+    <t>https://support-test.accenture.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=886cd2d5db3f77003abe78fdaa961957</t>
+  </si>
+  <si>
+    <t>https://support-test.accenture.com/former_employee_portal?id=fnf_landing_spa</t>
+  </si>
+  <si>
+    <t>invalidLogin</t>
+  </si>
+  <si>
+    <t>validLogin</t>
+  </si>
+  <si>
+    <t>test.exesponsor.1</t>
+  </si>
+  <si>
+    <t>accenture02</t>
+  </si>
+  <si>
+    <t>monika.negi</t>
+  </si>
+  <si>
+    <t>alka.bihal</t>
+  </si>
+  <si>
+    <t>Alka Bihal</t>
+  </si>
+  <si>
+    <t>neethu.nair</t>
+  </si>
+  <si>
+    <t>resty.l.bellin</t>
+  </si>
+  <si>
+    <t>sudha.krishna</t>
+  </si>
+  <si>
+    <t>atul.chandel</t>
+  </si>
+  <si>
+    <t>Atul Chandel</t>
+  </si>
+  <si>
+    <t>abhishek.ee</t>
+  </si>
+  <si>
+    <t>jennifer.palencia</t>
+  </si>
+  <si>
+    <t>neetu.m.ajit</t>
+  </si>
+  <si>
+    <t>lisabeth.s.roof</t>
+  </si>
+  <si>
+    <t>anush.uday.kumar</t>
+  </si>
+  <si>
+    <t>a.ajit.chavan</t>
+  </si>
+  <si>
+    <t>Aishvarya Ajit Chavan</t>
+  </si>
+  <si>
+    <t>gangadharan.ramdoss</t>
+  </si>
+  <si>
+    <t>michelle.xue.mei</t>
+  </si>
+  <si>
+    <t>harish.pandey</t>
+  </si>
+  <si>
+    <t>deepti.bane</t>
+  </si>
+  <si>
+    <t>FullAndFinalExitData</t>
+  </si>
+  <si>
+    <t>TestData1</t>
+  </si>
+  <si>
+    <t>EndData1</t>
+  </si>
+  <si>
+    <t>TestData2</t>
+  </si>
+  <si>
+    <t>EndData2</t>
+  </si>
+  <si>
+    <t>TestData3</t>
+  </si>
+  <si>
+    <t>EndData3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,8 +266,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,8 +300,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -97,31 +339,50 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -403,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,49 +676,371 @@
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="10" width="45.28515625" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" customWidth="1"/>
+    <col min="15" max="15" width="38.42578125" customWidth="1"/>
+    <col min="16" max="16" width="28" customWidth="1"/>
+    <col min="17" max="17" width="27.7109375" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" customWidth="1"/>
+    <col min="21" max="21" width="39.7109375" customWidth="1"/>
+    <col min="22" max="22" width="23.7109375" customWidth="1"/>
+    <col min="23" max="23" width="33.5703125" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" customWidth="1"/>
+    <col min="25" max="25" width="42" customWidth="1"/>
+    <col min="26" max="33" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{E28696EB-5277-44E4-B7BD-C673B03706D3}"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://support-dev.accenture.com/login.do" xr:uid="{8718543E-8B90-42B1-87A1-34CA376A1175}"/>
+    <hyperlink ref="F2" r:id="rId2" display="https://support-dev.accenture.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=24ce8ebbdb09b300f945f9a41d9619de" xr:uid="{F441C019-F48F-46B8-BE94-9B07815C88DA}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{D83CD8F8-1AD0-4898-A47B-6AE6991FFD2A}"/>
+    <hyperlink ref="H2" r:id="rId4" display="https://support-dev.accenture.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=79c3b98bdb6ff3c0547bf456bf961902" xr:uid="{EB0152C9-163C-49EB-AE1C-06A48FED0CDB}"/>
+    <hyperlink ref="J2" r:id="rId5" display="https://support-dev.accenture.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=886cd2d5db3f77003abe78fdaa961957" xr:uid="{C57ED929-5879-40C7-B036-9BB935ADD865}"/>
+    <hyperlink ref="I2" r:id="rId6" display="https://support-dev.accenture.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=b0d8a24bdba7fbc0f5f4fd27bf9619c1" xr:uid="{2321D1B9-D380-4049-9F36-EFC29A1CA85F}"/>
+    <hyperlink ref="K2" r:id="rId7" display="https://support-dev.accenture.com/former_employee_portal?id=fnf_landing_spa" xr:uid="{B4B96081-864D-445F-896A-8BB236BBE16E}"/>
+    <hyperlink ref="E2" r:id="rId8" xr:uid="{9752F851-E943-4AF7-A5B7-EBF617896FDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul.b.gautam\IdeaProjects\SeleniumFrameWorkv2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9253714-C1C0-4934-88A3-593D575C7219}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F1539F-CC6C-4114-B6A0-0B71C3B5406B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -667,7 +667,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul.b.gautam\IdeaProjects\SeleniumFrameWorkv2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F1539F-CC6C-4114-B6A0-0B71C3B5406B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD56F19-D6D9-40CB-BB31-F7A582EDD51D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>Browser</t>
   </si>
@@ -132,42 +132,12 @@
     <t>77.0.3865.40</t>
   </si>
   <si>
-    <t>https://support-test.accenture.com/login.do</t>
-  </si>
-  <si>
-    <t>https://support-test.accenture.com/nav_to.do?uri=%2Fhome.do%3F</t>
-  </si>
-  <si>
-    <t>https://support-test.accenture.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=24ce8ebbdb09b300f945f9a41d9619de</t>
-  </si>
-  <si>
-    <t>https://support-test.accenture.com/login_with_sso.do?glide_sso_id=268f89771b85b384e60eb8cc1d4bcb8b</t>
-  </si>
-  <si>
-    <t>https://support-test.accenture.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=79c3b98bdb6ff3c0547bf456bf961902</t>
-  </si>
-  <si>
-    <t>https://support-test.accenture.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=b0d8a24bdba7fbc0f5f4fd27bf9619c1</t>
-  </si>
-  <si>
-    <t>https://support-test.accenture.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=886cd2d5db3f77003abe78fdaa961957</t>
-  </si>
-  <si>
-    <t>https://support-test.accenture.com/former_employee_portal?id=fnf_landing_spa</t>
-  </si>
-  <si>
     <t>invalidLogin</t>
   </si>
   <si>
     <t>validLogin</t>
   </si>
   <si>
-    <t>test.exesponsor.1</t>
-  </si>
-  <si>
-    <t>accenture02</t>
-  </si>
-  <si>
     <t>monika.negi</t>
   </si>
   <si>
@@ -244,6 +214,30 @@
   </si>
   <si>
     <t>EndData3</t>
+  </si>
+  <si>
+    <t>BJDBJFDF</t>
+  </si>
+  <si>
+    <t>https://google.com/login.do</t>
+  </si>
+  <si>
+    <t>https://google.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=24ce8ebbdb09b300f945f9a41d9619de</t>
+  </si>
+  <si>
+    <t>https://google.com/login_with_sso.do?glide_sso_id=268f89771b85b384e60eb8cc1d4bcb8b</t>
+  </si>
+  <si>
+    <t>https://google.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=79c3b98bdb6ff3c0547bf456bf961902</t>
+  </si>
+  <si>
+    <t>https://google.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=b0d8a24bdba7fbc0f5f4fd27bf9619c1</t>
+  </si>
+  <si>
+    <t>https://google.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=886cd2d5db3f77003abe78fdaa961957</t>
+  </si>
+  <si>
+    <t>https://google.com/former_employee_portal?id=fnf_landing_spa</t>
   </si>
 </sst>
 </file>
@@ -667,7 +661,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +687,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -803,28 +797,28 @@
         <v>34</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -851,85 +845,81 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="V4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="W4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="X4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="Y4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Z4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="AA4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="AB4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="AC4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="AD4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="AE4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="AF4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG4" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG4" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -966,12 +956,12 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -981,27 +971,27 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -1011,36 +1001,35 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://support-dev.accenture.com/login.do" xr:uid="{8718543E-8B90-42B1-87A1-34CA376A1175}"/>
     <hyperlink ref="F2" r:id="rId2" display="https://support-dev.accenture.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=24ce8ebbdb09b300f945f9a41d9619de" xr:uid="{F441C019-F48F-46B8-BE94-9B07815C88DA}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{D83CD8F8-1AD0-4898-A47B-6AE6991FFD2A}"/>
+    <hyperlink ref="G2" r:id="rId3" display="https://support-test.accenture.com/login_with_sso.do?glide_sso_id=268f89771b85b384e60eb8cc1d4bcb8b" xr:uid="{D83CD8F8-1AD0-4898-A47B-6AE6991FFD2A}"/>
     <hyperlink ref="H2" r:id="rId4" display="https://support-dev.accenture.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=79c3b98bdb6ff3c0547bf456bf961902" xr:uid="{EB0152C9-163C-49EB-AE1C-06A48FED0CDB}"/>
     <hyperlink ref="J2" r:id="rId5" display="https://support-dev.accenture.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=886cd2d5db3f77003abe78fdaa961957" xr:uid="{C57ED929-5879-40C7-B036-9BB935ADD865}"/>
-    <hyperlink ref="I2" r:id="rId6" display="https://support-dev.accenture.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=b0d8a24bdba7fbc0f5f4fd27bf9619c1" xr:uid="{2321D1B9-D380-4049-9F36-EFC29A1CA85F}"/>
+    <hyperlink ref="I2" r:id="rId6" display="https://support-test.accenture.com/support_portal?id=acn_service_catalog_dp&amp;sys_id=b0d8a24bdba7fbc0f5f4fd27bf9619c1" xr:uid="{2321D1B9-D380-4049-9F36-EFC29A1CA85F}"/>
     <hyperlink ref="K2" r:id="rId7" display="https://support-dev.accenture.com/former_employee_portal?id=fnf_landing_spa" xr:uid="{B4B96081-864D-445F-896A-8BB236BBE16E}"/>
-    <hyperlink ref="E2" r:id="rId8" xr:uid="{9752F851-E943-4AF7-A5B7-EBF617896FDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul.b.gautam\IdeaProjects\SeleniumFrameWorkv2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD56F19-D6D9-40CB-BB31-F7A582EDD51D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015EEC0E-4A7B-428D-BBBC-21AC22A251E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>Browser</t>
   </si>
@@ -138,63 +138,6 @@
     <t>validLogin</t>
   </si>
   <si>
-    <t>monika.negi</t>
-  </si>
-  <si>
-    <t>alka.bihal</t>
-  </si>
-  <si>
-    <t>Alka Bihal</t>
-  </si>
-  <si>
-    <t>neethu.nair</t>
-  </si>
-  <si>
-    <t>resty.l.bellin</t>
-  </si>
-  <si>
-    <t>sudha.krishna</t>
-  </si>
-  <si>
-    <t>atul.chandel</t>
-  </si>
-  <si>
-    <t>Atul Chandel</t>
-  </si>
-  <si>
-    <t>abhishek.ee</t>
-  </si>
-  <si>
-    <t>jennifer.palencia</t>
-  </si>
-  <si>
-    <t>neetu.m.ajit</t>
-  </si>
-  <si>
-    <t>lisabeth.s.roof</t>
-  </si>
-  <si>
-    <t>anush.uday.kumar</t>
-  </si>
-  <si>
-    <t>a.ajit.chavan</t>
-  </si>
-  <si>
-    <t>Aishvarya Ajit Chavan</t>
-  </si>
-  <si>
-    <t>gangadharan.ramdoss</t>
-  </si>
-  <si>
-    <t>michelle.xue.mei</t>
-  </si>
-  <si>
-    <t>harish.pandey</t>
-  </si>
-  <si>
-    <t>deepti.bane</t>
-  </si>
-  <si>
     <t>FullAndFinalExitData</t>
   </si>
   <si>
@@ -238,6 +181,18 @@
   </si>
   <si>
     <t>https://google.com/former_employee_portal?id=fnf_landing_spa</t>
+  </si>
+  <si>
+    <t>rahulhh</t>
+  </si>
+  <si>
+    <t>vijay</t>
+  </si>
+  <si>
+    <t>Nejha</t>
+  </si>
+  <si>
+    <t>perya</t>
   </si>
 </sst>
 </file>
@@ -660,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +642,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -797,28 +752,28 @@
         <v>34</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -857,61 +812,61 @@
       <c r="L4" s="11"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AC4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="7" t="s">
+      <c r="AE4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AF4" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="AG4" s="7" t="s">
         <v>55</v>
@@ -919,7 +874,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -956,12 +911,12 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -981,17 +936,17 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -1011,12 +966,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul.b.gautam\IdeaProjects\SeleniumFrameWorkv2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015EEC0E-4A7B-428D-BBBC-21AC22A251E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF2A012-FC69-4ADC-A0CC-7828ABEDA19D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>Browser</t>
   </si>
@@ -193,13 +193,25 @@
   </si>
   <si>
     <t>perya</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TestADBD</t>
+  </si>
+  <si>
+    <t>NOTValidPassword</t>
+  </si>
+  <si>
+    <t>NOTValidUser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,12 +234,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -293,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -324,9 +330,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -616,7 +619,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +629,8 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="46.140625" customWidth="1"/>
     <col min="5" max="10" width="45.28515625" customWidth="1"/>
-    <col min="11" max="11" width="36.42578125" customWidth="1"/>
+    <col min="11" max="12" width="36.42578125" customWidth="1"/>
+    <col min="13" max="13" width="43.85546875" customWidth="1"/>
     <col min="15" max="15" width="38.42578125" customWidth="1"/>
     <col min="16" max="16" width="28" customWidth="1"/>
     <col min="17" max="17" width="27.7109375" customWidth="1"/>
@@ -741,7 +745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -775,8 +779,6 @@
       <c r="K2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -798,19 +800,29 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="L3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="N4" s="7" t="s">
         <v>52</v>
       </c>
@@ -872,7 +884,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -886,7 +898,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="12"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -910,7 +922,7 @@
       <c r="AG5" s="7"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -940,7 +952,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -970,7 +982,7 @@
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>43</v>
       </c>
     </row>
